--- a/data/trans_bre/IP26C_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP26C_R-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,12%</t>
+          <t>-12,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,61%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-5,63%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-13,71%</t>
+          <t>-25,78%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 11,69</t>
+          <t>-4,29; 3,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 5,36</t>
+          <t>-3,74; 4,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 4,38</t>
+          <t>-2,0; 5,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 2,63</t>
+          <t>-9,26; 2,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 77,54</t>
+          <t>-50,87; 67,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,92; 30,68</t>
+          <t>-40,55; 81,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,06; 33,59</t>
+          <t>-24,73; 114,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,31; 30,22</t>
+          <t>-55,53; 23,24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-12,64%</t>
+          <t>37,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>-2,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>-5,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-25,78%</t>
+          <t>-13,71%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 3,09</t>
+          <t>0,91; 11,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 4,5</t>
+          <t>-6,36; 5,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 5,5</t>
+          <t>-6,01; 4,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 2,1</t>
+          <t>-5,26; 2,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-50,87; 67,21</t>
+          <t>4,86; 77,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-40,55; 81,53</t>
+          <t>-27,92; 30,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 114,79</t>
+          <t>-33,06; 33,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-55,53; 23,24</t>
+          <t>-38,31; 30,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP26C_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP26C_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-17,72%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-41,5%</t>
+          <t>-56,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,59%</t>
+          <t>148,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,87%</t>
+          <t>36,96%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,64</t>
+          <t>0,0; 3,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 0,83</t>
+          <t>-4,84; 1,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 2,36</t>
+          <t>-1,15; 3,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 4,99</t>
+          <t>-3,02; 8,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-81,86; 269,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-78,88; 44,27</t>
+          <t>-100,0; 148,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-65,31; 126,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-53,56; 98,56</t>
+          <t>-46,62; 314,25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,64%</t>
+          <t>-11,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>-10,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-25,78%</t>
+          <t>-5,3%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 3,09</t>
+          <t>-3,57; 2,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 4,5</t>
+          <t>-3,05; 3,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 5,5</t>
+          <t>-3,99; 3,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 2,1</t>
+          <t>-6,07; 4,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,87; 67,21</t>
+          <t>-52,71; 69,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,55; 81,53</t>
+          <t>-45,79; 96,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 114,79</t>
+          <t>-52,47; 76,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-55,53; 23,24</t>
+          <t>-52,65; 86,32</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-5,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>37,12%</t>
+          <t>37,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,61%</t>
+          <t>-0,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-5,63%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-13,71%</t>
+          <t>-34,34%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 11,69</t>
+          <t>-1,57; 9,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 5,36</t>
+          <t>-6,6; 5,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 4,38</t>
+          <t>-4,25; 6,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 2,63</t>
+          <t>-11,28; 0,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 77,54</t>
+          <t>-15,15; 154,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,92; 30,68</t>
+          <t>-44,24; 60,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,06; 33,59</t>
+          <t>-30,69; 74,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,31; 30,22</t>
+          <t>-59,62; 3,56</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,62%</t>
+          <t>-4,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>-7,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-16,53%</t>
+          <t>-8,62%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,05</t>
+          <t>-1,44; 11,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 2,11</t>
+          <t>-8,89; 6,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 2,38</t>
+          <t>-7,67; 5,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,96</t>
+          <t>-5,97; 3,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 59,8</t>
+          <t>-7,5; 67,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,57; 22,23</t>
+          <t>-31,6; 33,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,05; 29,0</t>
+          <t>-37,59; 40,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,77; 10,65</t>
+          <t>-43,75; 41,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,19</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,87</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>23,18%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-4,62%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-16,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,03; 5,06</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; 2,13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 2,64</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,64; 0,83</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 63,92</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-25,51; 21,85</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-22,24; 32,55</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-35,8; 8,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP26C_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP26C_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,87</t>
+          <t>0,0; 4,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 1,04</t>
+          <t>-5,12; 0,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,6</t>
+          <t>-1,22; 3,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 8,95</t>
+          <t>-3,75; 9,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 148,33</t>
+          <t>-91,8; 109,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-46,62; 314,25</t>
+          <t>-53,5; 341,03</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 2,39</t>
+          <t>-3,35; 2,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 3,48</t>
+          <t>-3,13; 3,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 3,02</t>
+          <t>-4,61; 2,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 4,75</t>
+          <t>-5,28; 4,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,71; 69,66</t>
+          <t>-52,99; 66,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,79; 96,97</t>
+          <t>-45,7; 86,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-52,47; 76,68</t>
+          <t>-56,2; 54,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,65; 86,32</t>
+          <t>-48,62; 73,02</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 9,5</t>
+          <t>-2,46; 9,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 5,42</t>
+          <t>-6,12; 6,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 6,98</t>
+          <t>-5,21; 6,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 0,34</t>
+          <t>-11,98; 0,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 154,74</t>
+          <t>-23,23; 160,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-44,24; 60,58</t>
+          <t>-41,96; 70,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 74,84</t>
+          <t>-34,16; 68,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-59,62; 3,56</t>
+          <t>-60,86; 5,12</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 11,74</t>
+          <t>-1,7; 12,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 6,84</t>
+          <t>-8,57; 6,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 5,41</t>
+          <t>-8,33; 5,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 3,58</t>
+          <t>-6,19; 3,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 67,19</t>
+          <t>-8,43; 67,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,6; 33,92</t>
+          <t>-30,17; 34,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,59; 40,54</t>
+          <t>-42,84; 36,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,75; 41,93</t>
+          <t>-45,94; 41,96</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 5,06</t>
+          <t>-0,34; 4,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,13</t>
+          <t>-3,22; 2,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,64</t>
+          <t>-2,37; 2,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,83</t>
+          <t>-4,9; 0,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 63,92</t>
+          <t>-2,97; 57,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 21,85</t>
+          <t>-26,15; 23,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 32,55</t>
+          <t>-22,58; 34,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,8; 8,74</t>
+          <t>-37,22; 8,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP26C_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP26C_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,96%</t>
+          <t>43,32%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,44</t>
+          <t>0,0; 3,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 0,92</t>
+          <t>-5,19; 1,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 3,52</t>
+          <t>-1,21; 3,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 9,55</t>
+          <t>-2,92; 9,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-91,8; 109,22</t>
+          <t>-100,0; 153,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-53,5; 341,03</t>
+          <t>-44,24; 330,2</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,3%</t>
+          <t>-6,05%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 2,34</t>
+          <t>-3,6; 2,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 3,44</t>
+          <t>-3,09; 3,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 2,43</t>
+          <t>-4,15; 2,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 4,24</t>
+          <t>-4,93; 4,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,99; 66,95</t>
+          <t>-52,71; 75,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,7; 86,19</t>
+          <t>-48,0; 103,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-56,2; 54,66</t>
+          <t>-52,28; 70,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,62; 73,02</t>
+          <t>-47,47; 75,7</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>-4,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-34,34%</t>
+          <t>-32,51%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 9,72</t>
+          <t>-2,28; 10,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 6,46</t>
+          <t>-5,96; 5,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 6,47</t>
+          <t>-4,74; 6,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 0,47</t>
+          <t>-11,43; 0,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 160,94</t>
+          <t>-22,15; 158,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,96; 70,22</t>
+          <t>-40,23; 62,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 68,87</t>
+          <t>-30,48; 73,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-60,86; 5,12</t>
+          <t>-60,28; 7,97</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-8,62%</t>
+          <t>-12,45%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 12,1</t>
+          <t>-1,43; 12,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 6,75</t>
+          <t>-8,88; 6,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 5,35</t>
+          <t>-8,25; 5,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 3,63</t>
+          <t>-6,29; 2,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 67,11</t>
+          <t>-5,53; 68,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,17; 34,1</t>
+          <t>-32,1; 33,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,84; 36,55</t>
+          <t>-40,5; 35,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,94; 41,96</t>
+          <t>-50,21; 34,41</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-16,53%</t>
+          <t>-17,29%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 4,72</t>
+          <t>-0,24; 5,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 2,29</t>
+          <t>-2,94; 2,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 2,72</t>
+          <t>-2,42; 2,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 0,74</t>
+          <t>-4,64; 0,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 57,38</t>
+          <t>-2,57; 59,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,15; 23,77</t>
+          <t>-24,57; 22,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 34,8</t>
+          <t>-23,05; 29,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-37,22; 8,22</t>
+          <t>-37,71; 8,52</t>
         </is>
       </c>
     </row>
